--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H2">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I2">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J2">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.37166942974921</v>
+        <v>1.407309666666666</v>
       </c>
       <c r="N2">
-        <v>1.37166942974921</v>
+        <v>4.221928999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7403583450766218</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7403583450766218</v>
       </c>
       <c r="Q2">
-        <v>1.181570250912893</v>
+        <v>1.355216692045333</v>
       </c>
       <c r="R2">
-        <v>1.181570250912893</v>
+        <v>12.196950228408</v>
       </c>
       <c r="S2">
-        <v>0.01361118846992221</v>
+        <v>0.01036357586472656</v>
       </c>
       <c r="T2">
-        <v>0.01361118846992221</v>
+        <v>0.01036357586472656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3687727339317</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H3">
-        <v>13.3687727339317</v>
+        <v>2.888952</v>
       </c>
       <c r="I3">
-        <v>0.2112406522181216</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J3">
-        <v>0.2112406522181216</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.37166942974921</v>
+        <v>0.190555</v>
       </c>
       <c r="N3">
-        <v>1.37166942974921</v>
+        <v>0.571665</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1002472929644783</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1002472929644783</v>
       </c>
       <c r="Q3">
-        <v>18.33753687239888</v>
+        <v>0.18350141612</v>
       </c>
       <c r="R3">
-        <v>18.33753687239888</v>
+        <v>1.65151274508</v>
       </c>
       <c r="S3">
-        <v>0.2112406522181216</v>
+        <v>0.001403266989262232</v>
       </c>
       <c r="T3">
-        <v>0.2112406522181216</v>
+        <v>0.001403266989262232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4419813389077</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H4">
-        <v>17.4419813389077</v>
+        <v>2.888952</v>
       </c>
       <c r="I4">
-        <v>0.2756016268161652</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J4">
-        <v>0.2756016268161652</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.37166942974921</v>
+        <v>0.3029846666666667</v>
       </c>
       <c r="N4">
-        <v>1.37166942974921</v>
+        <v>0.908954</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1593943619588998</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1593943619588998</v>
       </c>
       <c r="Q4">
-        <v>23.92463259683588</v>
+        <v>0.2917693862453334</v>
       </c>
       <c r="R4">
-        <v>23.92463259683588</v>
+        <v>2.625924476208</v>
       </c>
       <c r="S4">
-        <v>0.2756016268161652</v>
+        <v>0.002231210836692579</v>
       </c>
       <c r="T4">
-        <v>0.2756016268161652</v>
+        <v>0.002231210836692579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.3166859237994</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H5">
-        <v>31.3166859237994</v>
+        <v>42.482327</v>
       </c>
       <c r="I5">
-        <v>0.4948365337277976</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J5">
-        <v>0.4948365337277976</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.37166942974921</v>
+        <v>1.407309666666666</v>
       </c>
       <c r="N5">
-        <v>1.37166942974921</v>
+        <v>4.221928999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7403583450766218</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7403583450766218</v>
       </c>
       <c r="Q5">
-        <v>42.95614072273304</v>
+        <v>19.92859648319811</v>
       </c>
       <c r="R5">
-        <v>42.95614072273304</v>
+        <v>179.357368348783</v>
       </c>
       <c r="S5">
-        <v>0.4948365337277976</v>
+        <v>0.1523974156630575</v>
       </c>
       <c r="T5">
-        <v>0.4948365337277976</v>
+        <v>0.1523974156630575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>14.16077566666667</v>
+      </c>
+      <c r="H6">
+        <v>42.482327</v>
+      </c>
+      <c r="I6">
+        <v>0.2058427742139996</v>
+      </c>
+      <c r="J6">
+        <v>0.2058427742139996</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.190555</v>
+      </c>
+      <c r="N6">
+        <v>0.571665</v>
+      </c>
+      <c r="O6">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="P6">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="Q6">
+        <v>2.698406607161667</v>
+      </c>
+      <c r="R6">
+        <v>24.285659464455</v>
+      </c>
+      <c r="S6">
+        <v>0.02063518089125179</v>
+      </c>
+      <c r="T6">
+        <v>0.02063518089125179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.298081370442775</v>
-      </c>
-      <c r="H6">
-        <v>0.298081370442775</v>
-      </c>
-      <c r="I6">
-        <v>0.004709998767993493</v>
-      </c>
-      <c r="J6">
-        <v>0.004709998767993493</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.37166942974921</v>
-      </c>
-      <c r="N6">
-        <v>1.37166942974921</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.4088691034141042</v>
-      </c>
-      <c r="R6">
-        <v>0.4088691034141042</v>
-      </c>
-      <c r="S6">
-        <v>0.004709998767993493</v>
-      </c>
-      <c r="T6">
-        <v>0.004709998767993493</v>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.16077566666667</v>
+      </c>
+      <c r="H7">
+        <v>42.482327</v>
+      </c>
+      <c r="I7">
+        <v>0.2058427742139996</v>
+      </c>
+      <c r="J7">
+        <v>0.2058427742139996</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3029846666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.908954</v>
+      </c>
+      <c r="O7">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="P7">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="Q7">
+        <v>4.290497895106444</v>
+      </c>
+      <c r="R7">
+        <v>38.614481055958</v>
+      </c>
+      <c r="S7">
+        <v>0.03281017765969035</v>
+      </c>
+      <c r="T7">
+        <v>0.03281017765969034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.538395</v>
+      </c>
+      <c r="H8">
+        <v>52.615185</v>
+      </c>
+      <c r="I8">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="J8">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.407309666666666</v>
+      </c>
+      <c r="N8">
+        <v>4.221928999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="P8">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="Q8">
+        <v>24.68195282131833</v>
+      </c>
+      <c r="R8">
+        <v>222.1375753918649</v>
+      </c>
+      <c r="S8">
+        <v>0.18874715169519</v>
+      </c>
+      <c r="T8">
+        <v>0.18874715169519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.538395</v>
+      </c>
+      <c r="H9">
+        <v>52.615185</v>
+      </c>
+      <c r="I9">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="J9">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.190555</v>
+      </c>
+      <c r="N9">
+        <v>0.571665</v>
+      </c>
+      <c r="O9">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="P9">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="Q9">
+        <v>3.342028859225</v>
+      </c>
+      <c r="R9">
+        <v>30.078259733025</v>
+      </c>
+      <c r="S9">
+        <v>0.02555707129935885</v>
+      </c>
+      <c r="T9">
+        <v>0.02555707129935885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.538395</v>
+      </c>
+      <c r="H10">
+        <v>52.615185</v>
+      </c>
+      <c r="I10">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="J10">
+        <v>0.2549402636579399</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3029846666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.908954</v>
+      </c>
+      <c r="O10">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="P10">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="Q10">
+        <v>5.313864762943333</v>
+      </c>
+      <c r="R10">
+        <v>47.82478286649</v>
+      </c>
+      <c r="S10">
+        <v>0.04063604066339101</v>
+      </c>
+      <c r="T10">
+        <v>0.04063604066339102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.78718966666667</v>
+      </c>
+      <c r="H11">
+        <v>107.361569</v>
+      </c>
+      <c r="I11">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="J11">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.407309666666666</v>
+      </c>
+      <c r="N11">
+        <v>4.221928999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="P11">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="Q11">
+        <v>50.36365796073344</v>
+      </c>
+      <c r="R11">
+        <v>453.2729216466009</v>
+      </c>
+      <c r="S11">
+        <v>0.3851395818579106</v>
+      </c>
+      <c r="T11">
+        <v>0.3851395818579106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.78718966666667</v>
+      </c>
+      <c r="H12">
+        <v>107.361569</v>
+      </c>
+      <c r="I12">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="J12">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.190555</v>
+      </c>
+      <c r="N12">
+        <v>0.571665</v>
+      </c>
+      <c r="O12">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="P12">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="Q12">
+        <v>6.819427926931668</v>
+      </c>
+      <c r="R12">
+        <v>61.374851342385</v>
+      </c>
+      <c r="S12">
+        <v>0.05214934193891051</v>
+      </c>
+      <c r="T12">
+        <v>0.05214934193891051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.78718966666667</v>
+      </c>
+      <c r="H13">
+        <v>107.361569</v>
+      </c>
+      <c r="I13">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="J13">
+        <v>0.5202069841166597</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.3029846666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.908954</v>
+      </c>
+      <c r="O13">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="P13">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="Q13">
+        <v>10.84296973209178</v>
+      </c>
+      <c r="R13">
+        <v>97.58672758882601</v>
+      </c>
+      <c r="S13">
+        <v>0.08291806031983849</v>
+      </c>
+      <c r="T13">
+        <v>0.08291806031983848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.344791</v>
+      </c>
+      <c r="H14">
+        <v>1.034373</v>
+      </c>
+      <c r="I14">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="J14">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.407309666666666</v>
+      </c>
+      <c r="N14">
+        <v>4.221928999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="P14">
+        <v>0.7403583450766218</v>
+      </c>
+      <c r="Q14">
+        <v>0.4852277072796666</v>
+      </c>
+      <c r="R14">
+        <v>4.367049365517</v>
+      </c>
+      <c r="S14">
+        <v>0.00371061999573714</v>
+      </c>
+      <c r="T14">
+        <v>0.00371061999573714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.344791</v>
+      </c>
+      <c r="H15">
+        <v>1.034373</v>
+      </c>
+      <c r="I15">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="J15">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.190555</v>
+      </c>
+      <c r="N15">
+        <v>0.571665</v>
+      </c>
+      <c r="O15">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="P15">
+        <v>0.1002472929644783</v>
+      </c>
+      <c r="Q15">
+        <v>0.065701649005</v>
+      </c>
+      <c r="R15">
+        <v>0.591314841045</v>
+      </c>
+      <c r="S15">
+        <v>0.000502431845694959</v>
+      </c>
+      <c r="T15">
+        <v>0.0005024318456949588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.344791</v>
+      </c>
+      <c r="H16">
+        <v>1.034373</v>
+      </c>
+      <c r="I16">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="J16">
+        <v>0.005011924320719471</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3029846666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.908954</v>
+      </c>
+      <c r="O16">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="P16">
+        <v>0.1593943619588998</v>
+      </c>
+      <c r="Q16">
+        <v>0.1044663862046667</v>
+      </c>
+      <c r="R16">
+        <v>0.940197475842</v>
+      </c>
+      <c r="S16">
+        <v>0.0007988724792873724</v>
+      </c>
+      <c r="T16">
+        <v>0.0007988724792873722</v>
       </c>
     </row>
   </sheetData>
